--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H2">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I2">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J2">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>26.88886388422889</v>
+        <v>5.60895624752</v>
       </c>
       <c r="R2">
-        <v>241.99977495806</v>
+        <v>50.48060622768</v>
       </c>
       <c r="S2">
-        <v>0.1783018380027463</v>
+        <v>0.09842218904243769</v>
       </c>
       <c r="T2">
-        <v>0.1957366904756806</v>
+        <v>0.1068586933554733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H3">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I3">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J3">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>4.392002405895999</v>
+        <v>1.346730848928</v>
       </c>
       <c r="R3">
-        <v>39.52802165306399</v>
+        <v>12.120577640352</v>
       </c>
       <c r="S3">
-        <v>0.02912365895619164</v>
+        <v>0.02363152650033246</v>
       </c>
       <c r="T3">
-        <v>0.0319714517947906</v>
+        <v>0.02565716195086799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H4">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I4">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J4">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>5.82227312723</v>
+        <v>2.211353436816</v>
       </c>
       <c r="R4">
-        <v>52.40045814507</v>
+        <v>19.902180931344</v>
       </c>
       <c r="S4">
-        <v>0.0386078788753881</v>
+        <v>0.03880334172586583</v>
       </c>
       <c r="T4">
-        <v>0.04238306526732501</v>
+        <v>0.04212946729790844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H5">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I5">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J5">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>11.15066629234133</v>
+        <v>3.467284779168001</v>
       </c>
       <c r="R5">
-        <v>66.90399775404801</v>
+        <v>20.803708675008</v>
       </c>
       <c r="S5">
-        <v>0.0739408069987612</v>
+        <v>0.06084157959872247</v>
       </c>
       <c r="T5">
-        <v>0.05411396395818659</v>
+        <v>0.04403784526542222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4800273333333333</v>
+        <v>0.147192</v>
       </c>
       <c r="H6">
-        <v>1.440082</v>
+        <v>0.441576</v>
       </c>
       <c r="I6">
-        <v>0.3651020357716239</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="J6">
-        <v>0.373745752128283</v>
+        <v>0.2568777879386531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>6.805519834479333</v>
+        <v>2.00481538872</v>
       </c>
       <c r="R6">
-        <v>61.249678510314</v>
+        <v>18.04333849848</v>
       </c>
       <c r="S6">
-        <v>0.04512785293853667</v>
+        <v>0.03517915107129466</v>
       </c>
       <c r="T6">
-        <v>0.04954058063230021</v>
+        <v>0.03819462006898115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H7">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I7">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J7">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>13.84096408563778</v>
+        <v>9.415810345782221</v>
       </c>
       <c r="R7">
-        <v>124.56867677074</v>
+        <v>84.74229311203999</v>
       </c>
       <c r="S7">
-        <v>0.0917803499182684</v>
+        <v>0.1652223025005891</v>
       </c>
       <c r="T7">
-        <v>0.1007548892649388</v>
+        <v>0.1793847457587336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H8">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I8">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J8">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>2.260770400184</v>
@@ -948,10 +948,10 @@
         <v>20.346933601656</v>
       </c>
       <c r="S8">
-        <v>0.01499131831640686</v>
+        <v>0.03967047733824629</v>
       </c>
       <c r="T8">
-        <v>0.01645721135569974</v>
+        <v>0.04307093160999584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,13 +977,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H9">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I9">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J9">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>2.99699807317</v>
+        <v>3.712220892748</v>
       </c>
       <c r="R9">
-        <v>26.97298265853</v>
+        <v>33.409988034732</v>
       </c>
       <c r="S9">
-        <v>0.01987329279651433</v>
+        <v>0.0651395536620341</v>
       </c>
       <c r="T9">
-        <v>0.02181655895652619</v>
+        <v>0.07072315356735639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,13 +1039,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H10">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I10">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J10">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>5.739772879498669</v>
+        <v>5.820565262904</v>
       </c>
       <c r="R10">
-        <v>34.43863727699201</v>
+        <v>34.923391577424</v>
       </c>
       <c r="S10">
-        <v>0.03806081426642907</v>
+        <v>0.1021353616178909</v>
       </c>
       <c r="T10">
-        <v>0.02785500476708732</v>
+        <v>0.0739267665422524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,13 +1101,13 @@
         <v>0.2470926666666667</v>
       </c>
       <c r="H11">
-        <v>0.7412780000000001</v>
+        <v>0.741278</v>
       </c>
       <c r="I11">
-        <v>0.1879352056846193</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="J11">
-        <v>0.1923845334127844</v>
+        <v>0.4312232840724788</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>3.503121441600667</v>
+        <v>3.365503427993334</v>
       </c>
       <c r="R11">
-        <v>31.528092974406</v>
+        <v>30.28953085194</v>
       </c>
       <c r="S11">
-        <v>0.02322943038700059</v>
+        <v>0.0590555889537184</v>
       </c>
       <c r="T11">
-        <v>0.02550086906853238</v>
+        <v>0.06411768659414056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H12">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I12">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J12">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>6.935606167518888</v>
+        <v>6.81034921227111</v>
       </c>
       <c r="R12">
-        <v>62.42045550766999</v>
+        <v>61.29314291044</v>
       </c>
       <c r="S12">
-        <v>0.04599046403210519</v>
+        <v>0.1195034241729969</v>
       </c>
       <c r="T12">
-        <v>0.05048754025152809</v>
+        <v>0.1297469593276896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H13">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I13">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J13">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>1.132855560772</v>
+        <v>1.635189680824</v>
       </c>
       <c r="R13">
-        <v>10.195700046948</v>
+        <v>14.716707127416</v>
       </c>
       <c r="S13">
-        <v>0.007512040283552204</v>
+        <v>0.02869320793105887</v>
       </c>
       <c r="T13">
-        <v>0.008246588595457183</v>
+        <v>0.03115271807628467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H14">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I14">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J14">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>1.501773878735</v>
+        <v>2.685007418828</v>
       </c>
       <c r="R14">
-        <v>13.515964908615</v>
+        <v>24.165066769452</v>
       </c>
       <c r="S14">
-        <v>0.009958362093536365</v>
+        <v>0.04711470300255623</v>
       </c>
       <c r="T14">
-        <v>0.01093211859497071</v>
+        <v>0.05115325771217637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H15">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I15">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J15">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>2.876158332389334</v>
+        <v>4.209949074744</v>
       </c>
       <c r="R15">
-        <v>17.256949994336</v>
+        <v>25.259694448464</v>
       </c>
       <c r="S15">
-        <v>0.01907199646886972</v>
+        <v>0.0738733527965556</v>
       </c>
       <c r="T15">
-        <v>0.01395793975503093</v>
+        <v>0.05347039477194921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1238163333333333</v>
+        <v>0.1787193333333333</v>
       </c>
       <c r="H16">
-        <v>0.371449</v>
+        <v>0.536158</v>
       </c>
       <c r="I16">
-        <v>0.09417296104342247</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="J16">
-        <v>0.0964024867211024</v>
+        <v>0.311898927988868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>1.755388607730333</v>
+        <v>2.434230594926667</v>
       </c>
       <c r="R16">
-        <v>15.798497469573</v>
+        <v>21.90807535434</v>
       </c>
       <c r="S16">
-        <v>0.01164009816535899</v>
+        <v>0.04271424008570031</v>
       </c>
       <c r="T16">
-        <v>0.01277829952411549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.0912215</v>
-      </c>
-      <c r="H17">
-        <v>0.182443</v>
-      </c>
-      <c r="I17">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J17">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>56.01527666666667</v>
-      </c>
-      <c r="N17">
-        <v>168.04583</v>
-      </c>
-      <c r="O17">
-        <v>0.4883616647765734</v>
-      </c>
-      <c r="P17">
-        <v>0.5237161609491596</v>
-      </c>
-      <c r="Q17">
-        <v>5.109797560448333</v>
-      </c>
-      <c r="R17">
-        <v>30.65878536269</v>
-      </c>
-      <c r="S17">
-        <v>0.03388340618527456</v>
-      </c>
-      <c r="T17">
-        <v>0.02479774694805893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.0912215</v>
-      </c>
-      <c r="H18">
-        <v>0.182443</v>
-      </c>
-      <c r="I18">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J18">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>9.149483999999999</v>
-      </c>
-      <c r="N18">
-        <v>27.448452</v>
-      </c>
-      <c r="O18">
-        <v>0.07976854715323708</v>
-      </c>
-      <c r="P18">
-        <v>0.08554331818550501</v>
-      </c>
-      <c r="Q18">
-        <v>0.8346296547059999</v>
-      </c>
-      <c r="R18">
-        <v>5.007777928236</v>
-      </c>
-      <c r="S18">
-        <v>0.005534484540753031</v>
-      </c>
-      <c r="T18">
-        <v>0.00405044128028611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.0912215</v>
-      </c>
-      <c r="H19">
-        <v>0.182443</v>
-      </c>
-      <c r="I19">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J19">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>12.129045</v>
-      </c>
-      <c r="N19">
-        <v>36.387135</v>
-      </c>
-      <c r="O19">
-        <v>0.1057454494708373</v>
-      </c>
-      <c r="P19">
-        <v>0.1134007945935868</v>
-      </c>
-      <c r="Q19">
-        <v>1.1064296784675</v>
-      </c>
-      <c r="R19">
-        <v>6.638578070805</v>
-      </c>
-      <c r="S19">
-        <v>0.007336808507080602</v>
-      </c>
-      <c r="T19">
-        <v>0.005369481443811239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.0912215</v>
-      </c>
-      <c r="H20">
-        <v>0.182443</v>
-      </c>
-      <c r="I20">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J20">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>23.229232</v>
-      </c>
-      <c r="N20">
-        <v>46.45846400000001</v>
-      </c>
-      <c r="O20">
-        <v>0.2025209386808572</v>
-      </c>
-      <c r="P20">
-        <v>0.1447881712368271</v>
-      </c>
-      <c r="Q20">
-        <v>2.119005386888</v>
-      </c>
-      <c r="R20">
-        <v>8.476021547552001</v>
-      </c>
-      <c r="S20">
-        <v>0.01405126512025877</v>
-      </c>
-      <c r="T20">
-        <v>0.006855660945990184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.0912215</v>
-      </c>
-      <c r="H21">
-        <v>0.182443</v>
-      </c>
-      <c r="I21">
-        <v>0.06938178941784119</v>
-      </c>
-      <c r="J21">
-        <v>0.04734959277009249</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.177359</v>
-      </c>
-      <c r="N21">
-        <v>42.532077</v>
-      </c>
-      <c r="O21">
-        <v>0.1236033999184949</v>
-      </c>
-      <c r="P21">
-        <v>0.1325515550349214</v>
-      </c>
-      <c r="Q21">
-        <v>1.2932799540185</v>
-      </c>
-      <c r="R21">
-        <v>7.759679724111</v>
-      </c>
-      <c r="S21">
-        <v>0.008575825064474223</v>
-      </c>
-      <c r="T21">
-        <v>0.006276262151946033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H22">
-        <v>1.117854</v>
-      </c>
-      <c r="I22">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J22">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>56.01527666666667</v>
-      </c>
-      <c r="N22">
-        <v>168.04583</v>
-      </c>
-      <c r="O22">
-        <v>0.4883616647765734</v>
-      </c>
-      <c r="P22">
-        <v>0.5237161609491596</v>
-      </c>
-      <c r="Q22">
-        <v>20.87230036098</v>
-      </c>
-      <c r="R22">
-        <v>187.85070324882</v>
-      </c>
-      <c r="S22">
-        <v>0.1384056066381789</v>
-      </c>
-      <c r="T22">
-        <v>0.1519392940089533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H23">
-        <v>1.117854</v>
-      </c>
-      <c r="I23">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J23">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>9.149483999999999</v>
-      </c>
-      <c r="N23">
-        <v>27.448452</v>
-      </c>
-      <c r="O23">
-        <v>0.07976854715323708</v>
-      </c>
-      <c r="P23">
-        <v>0.08554331818550501</v>
-      </c>
-      <c r="Q23">
-        <v>3.409262429111999</v>
-      </c>
-      <c r="R23">
-        <v>30.683361862008</v>
-      </c>
-      <c r="S23">
-        <v>0.02260704505633335</v>
-      </c>
-      <c r="T23">
-        <v>0.02481762515927138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.117854</v>
-      </c>
-      <c r="I24">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J24">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>12.129045</v>
-      </c>
-      <c r="N24">
-        <v>36.387135</v>
-      </c>
-      <c r="O24">
-        <v>0.1057454494708373</v>
-      </c>
-      <c r="P24">
-        <v>0.1134007945935868</v>
-      </c>
-      <c r="Q24">
-        <v>4.51950048981</v>
-      </c>
-      <c r="R24">
-        <v>40.67550440829</v>
-      </c>
-      <c r="S24">
-        <v>0.02996910719831793</v>
-      </c>
-      <c r="T24">
-        <v>0.03289957033095361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H25">
-        <v>1.117854</v>
-      </c>
-      <c r="I25">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J25">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.229232</v>
-      </c>
-      <c r="N25">
-        <v>46.45846400000001</v>
-      </c>
-      <c r="O25">
-        <v>0.2025209386808572</v>
-      </c>
-      <c r="P25">
-        <v>0.1447881712368271</v>
-      </c>
-      <c r="Q25">
-        <v>8.655629969375999</v>
-      </c>
-      <c r="R25">
-        <v>51.933779816256</v>
-      </c>
-      <c r="S25">
-        <v>0.05739605582653848</v>
-      </c>
-      <c r="T25">
-        <v>0.04200560181053211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3726179999999999</v>
-      </c>
-      <c r="H26">
-        <v>1.117854</v>
-      </c>
-      <c r="I26">
-        <v>0.2834080080824931</v>
-      </c>
-      <c r="J26">
-        <v>0.2901176349677377</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>14.177359</v>
-      </c>
-      <c r="N26">
-        <v>42.532077</v>
-      </c>
-      <c r="O26">
-        <v>0.1236033999184949</v>
-      </c>
-      <c r="P26">
-        <v>0.1325515550349214</v>
-      </c>
-      <c r="Q26">
-        <v>5.282739155862</v>
-      </c>
-      <c r="R26">
-        <v>47.544652402758</v>
-      </c>
-      <c r="S26">
-        <v>0.03503019336312443</v>
-      </c>
-      <c r="T26">
-        <v>0.03845554365802733</v>
+        <v>0.04637559810076815</v>
       </c>
     </row>
   </sheetData>
